--- a/purchased_results.xlsx
+++ b/purchased_results.xlsx
@@ -418,16 +418,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>42578@surfman.com</v>
+        <v>flowasitgoes@gmail.com</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>豪華經典艙</v>
+        <v>尊貴頭等艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5020</v>
+        <v>5021</v>
       </c>
     </row>
   </sheetData>

--- a/purchased_results.xlsx
+++ b/purchased_results.xlsx
@@ -418,16 +418,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>flowasitgoes@gmail.com</v>
+        <v>99999@surfman.com</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Stranger</v>
       </c>
       <c r="C2" t="str">
-        <v>尊貴頭等艙</v>
+        <v>豪華經典艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
   </sheetData>

--- a/purchased_results.xlsx
+++ b/purchased_results.xlsx
@@ -418,16 +418,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>99999@surfman.com</v>
+        <v>0346C@xx.com</v>
       </c>
       <c r="B2" t="str">
-        <v>Stranger</v>
+        <v/>
       </c>
       <c r="C2" t="str">
         <v>豪華經典艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5023</v>
+        <v>5026</v>
       </c>
     </row>
   </sheetData>

--- a/purchased_results.xlsx
+++ b/purchased_results.xlsx
@@ -418,16 +418,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0346C@xx.com</v>
+        <v>94216@surfman.com</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Stranger</v>
       </c>
       <c r="C2" t="str">
         <v>豪華經典艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5026</v>
+        <v>5052</v>
       </c>
     </row>
   </sheetData>
